--- a/biology/Zoologie/Erythrolamprus_viridis/Erythrolamprus_viridis.xlsx
+++ b/biology/Zoologie/Erythrolamprus_viridis/Erythrolamprus_viridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus viridis  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus viridis  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil dans les États du Ceará, du Rio Grande do Norte, du Pernambouc, de Bahia et du Minas Gerais ;
 au Paraguay.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Erythrolamprus viridis prasinus (Jan, 1866)
 Erythrolamprus viridis viridis (Günther, 1862)</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1862 : On new species of snakes in the collection of the British Museum. Annals and Magazine of Natural History, sér. 3, vol. 9, p. 52-67 (texte intégral).
 Jan, 1866 : Iconographie générale des ophidiens. 18. Livraison. J.B. Bailière et Fils, Paris (texte intégral).</t>
